--- a/p_arrs/p_arr_5_row_20_20_20_col_2_lp_1_vol_classes.xlsx
+++ b/p_arrs/p_arr_5_row_20_20_20_col_2_lp_1_vol_classes.xlsx
@@ -29025,7 +29025,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0250000095028662</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="113">
@@ -40145,7 +40145,7 @@
         <v>1502</v>
       </c>
       <c r="B1502" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1503">
@@ -40305,7 +40305,7 @@
         <v>1522</v>
       </c>
       <c r="B1522" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1523">
@@ -45825,7 +45825,7 @@
         <v>2212</v>
       </c>
       <c r="B2212" t="n">
-        <v>0.0250000095028662</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="2213">
@@ -46625,7 +46625,7 @@
         <v>2312</v>
       </c>
       <c r="B2312" t="n">
-        <v>0.0250000095028662</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="2313">
@@ -56945,7 +56945,7 @@
         <v>3602</v>
       </c>
       <c r="B3602" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3603">
@@ -57905,7 +57905,7 @@
         <v>3722</v>
       </c>
       <c r="B3722" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3723">
@@ -60465,7 +60465,7 @@
         <v>4042</v>
       </c>
       <c r="B4042" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4043">
@@ -61265,7 +61265,7 @@
         <v>4142</v>
       </c>
       <c r="B4142" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4143">
@@ -69105,7 +69105,7 @@
         <v>5122</v>
       </c>
       <c r="B5122" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5123">
@@ -69905,7 +69905,7 @@
         <v>5222</v>
       </c>
       <c r="B5222" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5223">
@@ -72465,7 +72465,7 @@
         <v>5542</v>
       </c>
       <c r="B5542" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5543">
@@ -73425,7 +73425,7 @@
         <v>5662</v>
       </c>
       <c r="B5662" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5663">
@@ -83745,7 +83745,7 @@
         <v>6952</v>
       </c>
       <c r="B6952" t="n">
-        <v>0.0250000095028662</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6953">
@@ -84545,7 +84545,7 @@
         <v>7052</v>
       </c>
       <c r="B7052" t="n">
-        <v>0.0250000095028662</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7053">
@@ -90065,7 +90065,7 @@
         <v>7742</v>
       </c>
       <c r="B7742" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7743">
@@ -90225,7 +90225,7 @@
         <v>7762</v>
       </c>
       <c r="B7762" t="n">
-        <v>0.0000000515138839460499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7763">
@@ -101345,7 +101345,7 @@
         <v>9152</v>
       </c>
       <c r="B9152" t="n">
-        <v>0.0250000095028662</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="9153">
